--- a/Sanitarias/HOJAS Y CUESTIONARIO SANT1/FOTOS EXAMEN/Sanitaria 1 MAX - copia.xlsx
+++ b/Sanitarias/HOJAS Y CUESTIONARIO SANT1/FOTOS EXAMEN/Sanitaria 1 MAX - copia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\Segundo-Semestre-24\Sanitarias\HOJAS Y CUESTIONARIO SANT1\FOTOS EXAMEN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53381B49-A287-4E8B-A78E-3B800F584AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BD8054-D8B6-47C5-8EE5-A72A89F93D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{A96D55F9-D6EE-45A4-B77D-96845266E695}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A96D55F9-D6EE-45A4-B77D-96845266E695}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -25,30 +25,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -1054,24 +1043,6 @@
     <xf numFmtId="169" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1082,6 +1053,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,23 +1076,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1126,23 +1097,23 @@
     <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1154,6 +1125,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="174" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1347,7 +1336,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1577,7 +1566,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-GT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1740,7 +1729,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-GT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1879,7 +1868,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1227455696"/>
@@ -1935,7 +1924,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1227453776"/>
@@ -1974,7 +1963,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2051,7 +2040,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2281,7 +2270,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-GT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2444,7 +2433,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-GT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2584,7 +2573,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1227455696"/>
@@ -2642,7 +2631,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1227453776"/>
@@ -2681,7 +2670,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2744,7 +2733,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2919,7 +2908,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-GT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3082,7 +3071,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-MX"/>
+                <a:endParaRPr lang="es-GT"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3221,7 +3210,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1227455696"/>
@@ -3277,7 +3266,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1227453776"/>
@@ -3316,7 +3305,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6254,62 +6243,62 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="4"/>
-    <col min="2" max="2" width="12.77734375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" style="4"/>
+    <col min="2" max="2" width="12.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="4"/>
+    <col min="6" max="16384" width="11.54296875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6322,13 +6311,13 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -6337,12 +6326,12 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:11" ht="28.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="52"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="2" t="str" cm="1">
         <f t="array" ref="D6">_xlfn.IFS(A6="Llena Cantaros","30-60 L/Hab/d",A6="Llena Cantaros y Conexiones Prediales","60-90 L/Hab/d",A6="Conexiones Prediales Fuera de la Vivienda","60-120 L/Hab/d",A6="Conexiones Intradomiciliares","90-170 L/Hab/d",A6="Pozo excavado o Hincado con Bomba Manual","20 L/Hab/d",A6="Servicio de Aljibes","20 L/Hab/d")</f>
         <v>90-170 L/Hab/d</v>
@@ -6355,12 +6344,12 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="11">
         <v>100</v>
       </c>
@@ -6372,12 +6361,12 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="12">
         <v>0.2</v>
       </c>
@@ -6389,12 +6378,12 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="13">
         <v>6</v>
       </c>
@@ -6406,14 +6395,14 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="14">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -6423,14 +6412,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="15">
-        <v>2.7400000000000001E-2</v>
+        <v>2.3400000000000001E-2</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6440,15 +6429,15 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="2">
         <f>(D11+1)^D10</f>
-        <v>2.4400882060787965</v>
+        <v>1.7023328923375658</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -6458,12 +6447,12 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="16">
         <v>100</v>
       </c>
@@ -6475,12 +6464,12 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="53" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="12" t="s">
         <v>11</v>
       </c>
@@ -6492,12 +6481,12 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="17" t="s">
         <v>10</v>
       </c>
@@ -6508,12 +6497,12 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
@@ -6521,18 +6510,18 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -6542,16 +6531,16 @@
       <c r="C19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
       <c r="G19" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -6567,14 +6556,14 @@
       <c r="G20" s="19">
         <v>40</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -6591,7 +6580,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -6612,7 +6601,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>36</v>
       </c>
@@ -6630,7 +6619,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -6651,7 +6640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -6669,7 +6658,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -6690,18 +6679,24 @@
         <f>42*2</f>
         <v>84</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C20:C26">
     <sortCondition descending="1" ref="C26"/>
   </sortState>
   <mergeCells count="17">
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="A16:C16"/>
@@ -6713,12 +6708,6 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="H20:K20"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <conditionalFormatting sqref="D15">
     <cfRule type="expression" dxfId="9" priority="4">
@@ -6773,134 +6762,134 @@
   </sheetPr>
   <dimension ref="B1:AP44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="71" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showGridLines="0" topLeftCell="U1" zoomScale="71" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="AF53" sqref="AF53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" style="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" style="1"/>
+    <col min="2" max="2" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" style="1"/>
-    <col min="16" max="16" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.5546875" style="1"/>
-    <col min="23" max="23" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.21875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5546875" style="1"/>
-    <col min="30" max="31" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.5546875" style="1" customWidth="1"/>
-    <col min="33" max="33" width="5.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="2.88671875" style="1" customWidth="1"/>
-    <col min="35" max="35" width="10.88671875" style="1" customWidth="1"/>
-    <col min="36" max="38" width="11.5546875" style="1"/>
-    <col min="39" max="39" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="2.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" style="1"/>
+    <col min="16" max="16" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.54296875" style="1"/>
+    <col min="23" max="23" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.1796875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="5.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.54296875" style="1"/>
+    <col min="30" max="31" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.54296875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="5.6328125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="2.90625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.90625" style="1" customWidth="1"/>
+    <col min="36" max="38" width="11.54296875" style="1"/>
+    <col min="39" max="39" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="16384" width="11.5546875" style="1"/>
+    <col min="43" max="16384" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:42" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="65" t="s">
+    <row r="1" spans="2:42" ht="31" x14ac:dyDescent="0.35">
+      <c r="B1" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="P1" s="65" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="P1" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AD1" s="65" t="s">
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AD1" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
     </row>
-    <row r="3" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+    <row r="3" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42" t="s">
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="P3" s="47" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="P3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="47" t="s">
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="T3" s="48"/>
-      <c r="U3" s="49"/>
-      <c r="AD3" s="42" t="s">
+      <c r="T3" s="42"/>
+      <c r="U3" s="43"/>
+      <c r="AD3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42" t="s">
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="53"/>
     </row>
-    <row r="4" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B4" s="27" t="s">
         <v>43</v>
       </c>
@@ -6913,11 +6902,11 @@
       <c r="E4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="71">
         <f>C4</f>
         <v>7.2</v>
       </c>
-      <c r="G4" s="67"/>
+      <c r="G4" s="71"/>
       <c r="P4" s="27" t="s">
         <v>43</v>
       </c>
@@ -6930,11 +6919,11 @@
       <c r="S4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="70">
+      <c r="T4" s="64">
         <f>Q4</f>
         <v>7.2</v>
       </c>
-      <c r="U4" s="71"/>
+      <c r="U4" s="65"/>
       <c r="AD4" s="27" t="s">
         <v>43</v>
       </c>
@@ -6947,13 +6936,13 @@
       <c r="AG4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="AH4" s="67">
+      <c r="AH4" s="71">
         <f>AE4</f>
         <v>7.2</v>
       </c>
-      <c r="AI4" s="67"/>
+      <c r="AI4" s="71"/>
     </row>
-    <row r="5" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B5" s="27" t="s">
         <v>72</v>
       </c>
@@ -6966,11 +6955,11 @@
       <c r="E5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="69">
         <f>B23</f>
         <v>3</v>
       </c>
-      <c r="G5" s="64"/>
+      <c r="G5" s="69"/>
       <c r="P5" s="27" t="s">
         <v>72</v>
       </c>
@@ -6983,11 +6972,11 @@
       <c r="S5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="T5" s="72">
+      <c r="T5" s="66">
         <f>P23</f>
         <v>6</v>
       </c>
-      <c r="U5" s="73"/>
+      <c r="U5" s="67"/>
       <c r="AD5" s="27" t="s">
         <v>72</v>
       </c>
@@ -7000,13 +6989,13 @@
       <c r="AG5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AH5" s="64">
+      <c r="AH5" s="69">
         <f>AD23</f>
         <v>3</v>
       </c>
-      <c r="AI5" s="64"/>
+      <c r="AI5" s="69"/>
     </row>
-    <row r="6" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
         <v>73</v>
       </c>
@@ -7016,11 +7005,11 @@
       <c r="E6" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="56">
         <f>N21</f>
         <v>750</v>
       </c>
-      <c r="G6" s="63"/>
+      <c r="G6" s="57"/>
       <c r="P6" s="27" t="s">
         <v>73</v>
       </c>
@@ -7030,11 +7019,11 @@
       <c r="S6" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="62">
+      <c r="T6" s="56">
         <f>AB21</f>
         <v>1440</v>
       </c>
-      <c r="U6" s="63"/>
+      <c r="U6" s="57"/>
       <c r="AD6" s="27" t="s">
         <v>73</v>
       </c>
@@ -7044,13 +7033,13 @@
       <c r="AG6" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AH6" s="62">
+      <c r="AH6" s="56">
         <f>AP21</f>
         <v>276</v>
       </c>
-      <c r="AI6" s="63"/>
+      <c r="AI6" s="57"/>
     </row>
-    <row r="7" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -7065,11 +7054,11 @@
       <c r="E7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="68">
         <f>N30</f>
         <v>25.475975766336997</v>
       </c>
-      <c r="G7" s="61"/>
+      <c r="G7" s="68"/>
       <c r="P7" s="2" t="s">
         <v>44</v>
       </c>
@@ -7084,11 +7073,11 @@
       <c r="S7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="62">
+      <c r="T7" s="56">
         <f>AB30</f>
         <v>1.6726919888744298</v>
       </c>
-      <c r="U7" s="63"/>
+      <c r="U7" s="57"/>
       <c r="AD7" s="2" t="s">
         <v>44</v>
       </c>
@@ -7103,13 +7092,13 @@
       <c r="AG7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AH7" s="61">
+      <c r="AH7" s="68">
         <f>AP30</f>
         <v>13.071563948487752</v>
       </c>
-      <c r="AI7" s="61"/>
+      <c r="AI7" s="68"/>
     </row>
-    <row r="8" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B8" s="27" t="s">
         <v>74</v>
       </c>
@@ -7119,11 +7108,11 @@
       <c r="E8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="69">
         <f>C23</f>
         <v>2</v>
       </c>
-      <c r="G8" s="64"/>
+      <c r="G8" s="69"/>
       <c r="P8" s="27" t="s">
         <v>74</v>
       </c>
@@ -7133,11 +7122,11 @@
       <c r="S8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="T8" s="72">
+      <c r="T8" s="66">
         <f>Q23</f>
         <v>1</v>
       </c>
-      <c r="U8" s="73"/>
+      <c r="U8" s="67"/>
       <c r="AD8" s="27" t="s">
         <v>74</v>
       </c>
@@ -7147,13 +7136,13 @@
       <c r="AG8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="AH8" s="64">
+      <c r="AH8" s="69">
         <f>AE23</f>
         <v>1</v>
       </c>
-      <c r="AI8" s="64"/>
+      <c r="AI8" s="69"/>
     </row>
-    <row r="9" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B9" s="27" t="s">
         <v>75</v>
       </c>
@@ -7163,11 +7152,11 @@
       <c r="E9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="56">
         <f>N26</f>
         <v>180</v>
       </c>
-      <c r="G9" s="63"/>
+      <c r="G9" s="57"/>
       <c r="P9" s="27" t="s">
         <v>75</v>
       </c>
@@ -7177,11 +7166,11 @@
       <c r="S9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="T9" s="62">
+      <c r="T9" s="56">
         <f>AB26</f>
         <v>9.49</v>
       </c>
-      <c r="U9" s="63"/>
+      <c r="U9" s="57"/>
       <c r="AD9" s="27" t="s">
         <v>75</v>
       </c>
@@ -7191,13 +7180,13 @@
       <c r="AG9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AH9" s="62">
+      <c r="AH9" s="56">
         <f>AP26</f>
         <v>9.6</v>
       </c>
-      <c r="AI9" s="63"/>
+      <c r="AI9" s="57"/>
     </row>
-    <row r="10" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
@@ -7212,11 +7201,11 @@
       <c r="E10" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="61">
+      <c r="F10" s="68">
         <f>N33</f>
         <v>44.046002632346621</v>
       </c>
-      <c r="G10" s="61"/>
+      <c r="G10" s="68"/>
       <c r="P10" s="2" t="s">
         <v>45</v>
       </c>
@@ -7231,11 +7220,11 @@
       <c r="S10" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="T10" s="62">
+      <c r="T10" s="56">
         <f>AB33</f>
         <v>67.907272385327502</v>
       </c>
-      <c r="U10" s="63"/>
+      <c r="U10" s="57"/>
       <c r="AD10" s="2" t="s">
         <v>45</v>
       </c>
@@ -7250,13 +7239,13 @@
       <c r="AG10" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AH10" s="61">
+      <c r="AH10" s="68">
         <f>AP33</f>
         <v>95.778981245596626</v>
       </c>
-      <c r="AI10" s="61"/>
+      <c r="AI10" s="68"/>
     </row>
-    <row r="11" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>46</v>
       </c>
@@ -7270,11 +7259,11 @@
       <c r="E11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F11" s="70">
         <f>F6+F9</f>
         <v>930</v>
       </c>
-      <c r="G11" s="60"/>
+      <c r="G11" s="70"/>
       <c r="P11" s="2" t="s">
         <v>46</v>
       </c>
@@ -7288,11 +7277,11 @@
       <c r="S11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="T11" s="68">
+      <c r="T11" s="72">
         <f>T6+T9</f>
         <v>1449.49</v>
       </c>
-      <c r="U11" s="69"/>
+      <c r="U11" s="73"/>
       <c r="AD11" s="2" t="s">
         <v>46</v>
       </c>
@@ -7306,13 +7295,13 @@
       <c r="AG11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AH11" s="60">
+      <c r="AH11" s="70">
         <f>AH6+AH9</f>
         <v>285.60000000000002</v>
       </c>
-      <c r="AI11" s="60"/>
+      <c r="AI11" s="70"/>
     </row>
-    <row r="12" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>47</v>
       </c>
@@ -7322,11 +7311,11 @@
       <c r="E12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="68">
         <f>F7+F10</f>
         <v>69.521978398683615</v>
       </c>
-      <c r="G12" s="61"/>
+      <c r="G12" s="68"/>
       <c r="P12" s="2" t="s">
         <v>47</v>
       </c>
@@ -7336,11 +7325,11 @@
       <c r="S12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="T12" s="62">
+      <c r="T12" s="56">
         <f>T7+T10</f>
         <v>69.579964374201936</v>
       </c>
-      <c r="U12" s="63"/>
+      <c r="U12" s="57"/>
       <c r="AD12" s="2" t="s">
         <v>47</v>
       </c>
@@ -7350,13 +7339,13 @@
       <c r="AG12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="AH12" s="61">
+      <c r="AH12" s="68">
         <f>AH7+AH10</f>
         <v>108.85054519408438</v>
       </c>
-      <c r="AI12" s="61"/>
+      <c r="AI12" s="68"/>
     </row>
-    <row r="13" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>48</v>
       </c>
@@ -7379,7 +7368,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
         <v>62</v>
       </c>
@@ -7399,66 +7388,66 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:42" ht="18" x14ac:dyDescent="0.3">
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="I16" s="47" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="I16" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="49"/>
-      <c r="P16" s="42" t="s">
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
+      <c r="P16" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="W16" s="47" t="s">
+      <c r="Q16" s="53"/>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="W16" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="49"/>
-      <c r="AD16" s="42" t="s">
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="43"/>
+      <c r="AD16" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AK16" s="47" t="s">
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="53"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="53"/>
+      <c r="AK16" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="49"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42"/>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="42"/>
+      <c r="AP16" s="43"/>
     </row>
-    <row r="18" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="56" t="str">
+      <c r="C18" s="58" t="str">
         <f>CONCATENATE("(1743.811*",ROUND(C4,2),"^1.852*",ROUND(D11,2),")^(1/4.87)")</f>
         <v>(1743.811*7.2^1.852*927)^(1/4.87)</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="1" t="s">
         <v>51</v>
       </c>
@@ -7484,12 +7473,12 @@
       <c r="P18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="Q18" s="56" t="str">
+      <c r="Q18" s="58" t="str">
         <f>CONCATENATE("(1743.811*",ROUND(Q4,2),"^1.852*",ROUND(R11,2),")^(1/4.87)")</f>
         <v>(1743.811*7.2^1.852*1452.3)^(1/4.87)</v>
       </c>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
       <c r="T18" s="1" t="s">
         <v>51</v>
       </c>
@@ -7515,12 +7504,12 @@
       <c r="AD18" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="AE18" s="56" t="str">
+      <c r="AE18" s="58" t="str">
         <f>CONCATENATE("(1743.811*",ROUND(AE4,2),"^1.852*",ROUND(AF11,2),")^(1/4.87)")</f>
         <v>(1743.811*7.2^1.852*288.4)^(1/4.87)</v>
       </c>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
+      <c r="AF18" s="58"/>
+      <c r="AG18" s="58"/>
       <c r="AH18" s="1" t="s">
         <v>51</v>
       </c>
@@ -7544,52 +7533,52 @@
         <v>46.466383931059227</v>
       </c>
     </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C19" s="58" t="str">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="C19" s="59" t="str">
         <f>CONCATENATE("(", ROUND(C12, 2), "^1.852*", ROUND(C13, 2), ")^(1/4.87)")</f>
         <v>(140^1.852*69)^(1/4.87)</v>
       </c>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
       <c r="L19" s="26">
         <f>C14</f>
         <v>6</v>
       </c>
-      <c r="Q19" s="58" t="str">
+      <c r="Q19" s="59" t="str">
         <f>CONCATENATE("(", ROUND(Q12, 2), "^1.852*", ROUND(Q13, 2), ")^(1/4.87)")</f>
         <v>(140^1.852*69)^(1/4.87)</v>
       </c>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
       <c r="Z19" s="26">
         <f>Q14</f>
         <v>6</v>
       </c>
-      <c r="AE19" s="58" t="str">
+      <c r="AE19" s="59" t="str">
         <f>CONCATENATE("(", ROUND(AE12, 2), "^1.852*", ROUND(AE13, 2), ")^(1/4.87)")</f>
         <v>(117^1.852*109)^(1/4.87)</v>
       </c>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
       <c r="AN19" s="26">
         <f>AE14</f>
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.35">
       <c r="L20" s="24"/>
       <c r="Z20" s="24"/>
       <c r="AN20" s="24"/>
     </row>
-    <row r="21" spans="2:42" ht="18" x14ac:dyDescent="0.3">
-      <c r="B21" s="42" t="s">
+    <row r="21" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
       <c r="K21" s="22" t="s">
         <v>63</v>
       </c>
@@ -7604,14 +7593,14 @@
         <f>L19*ROUND(N18,0)</f>
         <v>750</v>
       </c>
-      <c r="P21" s="42" t="s">
+      <c r="P21" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="Q21" s="42"/>
-      <c r="R21" s="42"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
       <c r="Y21" s="22" t="s">
         <v>63</v>
       </c>
@@ -7626,14 +7615,14 @@
         <f>Z19*ROUND(AB18,0)</f>
         <v>1440</v>
       </c>
-      <c r="AD21" s="42" t="s">
+      <c r="AD21" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="AE21" s="42"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="42"/>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="42"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="53"/>
       <c r="AM21" s="22" t="s">
         <v>63</v>
       </c>
@@ -7649,7 +7638,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B22" s="27" t="s">
         <v>53</v>
       </c>
@@ -7669,7 +7658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B23" s="30">
         <v>3</v>
       </c>
@@ -7731,7 +7720,7 @@
         <v>1.6002827356074436</v>
       </c>
     </row>
-    <row r="24" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:42" x14ac:dyDescent="0.35">
       <c r="L24" s="26">
         <f>C14</f>
         <v>6</v>
@@ -7745,16 +7734,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="56" t="str">
+      <c r="C25" s="58" t="str">
         <f>CONCATENATE("1743.811*",ROUND(C4,2),"^1.852*",ROUND(D11,2))</f>
         <v>1743.811*7.2^1.852*927</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
       <c r="F25" s="1" t="s">
         <v>51</v>
       </c>
@@ -7765,12 +7754,12 @@
       <c r="P25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q25" s="56" t="str">
+      <c r="Q25" s="58" t="str">
         <f>CONCATENATE("1743.811*",ROUND(Q4,2),"^1.852*",ROUND(R11,2))</f>
         <v>1743.811*7.2^1.852*1452.3</v>
       </c>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
       <c r="T25" s="1" t="s">
         <v>51</v>
       </c>
@@ -7781,12 +7770,12 @@
       <c r="AD25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AE25" s="56" t="str">
+      <c r="AE25" s="58" t="str">
         <f>CONCATENATE("1743.811*",ROUND(AE4,2),"^1.852*",ROUND(AF11,2))</f>
         <v>1743.811*7.2^1.852*288.4</v>
       </c>
-      <c r="AF25" s="56"/>
-      <c r="AG25" s="56"/>
+      <c r="AF25" s="58"/>
+      <c r="AG25" s="58"/>
       <c r="AH25" s="1" t="s">
         <v>51</v>
       </c>
@@ -7795,13 +7784,13 @@
         <v>13.658837111390827</v>
       </c>
     </row>
-    <row r="26" spans="2:42" ht="18" x14ac:dyDescent="0.3">
-      <c r="C26" s="58" t="str">
+    <row r="26" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="C26" s="59" t="str">
         <f>CONCATENATE( ROUND(C12, 2), "^1.852*", ROUND(B23, 2), "^4.83")</f>
         <v>140^1.852*3^4.83</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
       <c r="K26" s="22" t="s">
         <v>61</v>
       </c>
@@ -7816,12 +7805,12 @@
         <f>L24*ROUND(N23,0)</f>
         <v>180</v>
       </c>
-      <c r="Q26" s="58" t="str">
+      <c r="Q26" s="59" t="str">
         <f>CONCATENATE( ROUND(Q12, 2), "^1.852*", ROUND(P23, 2), "^4.83")</f>
         <v>140^1.852*6^4.83</v>
       </c>
-      <c r="R26" s="58"/>
-      <c r="S26" s="58"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
       <c r="Y26" s="22" t="s">
         <v>61</v>
       </c>
@@ -7835,12 +7824,12 @@
       <c r="AB26" s="38">
         <v>9.49</v>
       </c>
-      <c r="AE26" s="58" t="str">
+      <c r="AE26" s="59" t="str">
         <f>CONCATENATE( ROUND(AE12, 2), "^1.852*", ROUND(AD23, 2), "^4.83")</f>
         <v>117^1.852*3^4.83</v>
       </c>
-      <c r="AF26" s="58"/>
-      <c r="AG26" s="58"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
       <c r="AM26" s="22" t="s">
         <v>61</v>
       </c>
@@ -7855,16 +7844,16 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="28" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B28" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="56" t="str">
+      <c r="C28" s="58" t="str">
         <f>CONCATENATE("1743.811*",ROUND(C4,2),"^1.852*",ROUND(D11,2))</f>
         <v>1743.811*7.2^1.852*927</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="1" t="s">
         <v>51</v>
       </c>
@@ -7872,23 +7861,23 @@
         <f>(1743.811*C4^1.852*D11)/(C12^1.852*C23^4.87)</f>
         <v>226.8369135565851</v>
       </c>
-      <c r="I28" s="47" t="s">
+      <c r="I28" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="49"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
       <c r="P28" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="Q28" s="56" t="str">
+      <c r="Q28" s="58" t="str">
         <f>CONCATENATE("1743.811*",ROUND(Q4,2),"^1.852*",ROUND(R11,2))</f>
         <v>1743.811*7.2^1.852*1452.3</v>
       </c>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
+      <c r="R28" s="58"/>
+      <c r="S28" s="58"/>
       <c r="T28" s="1" t="s">
         <v>51</v>
       </c>
@@ -7896,23 +7885,23 @@
         <f>(1743.811*Q4^1.852*R11)/(Q12^1.852*Q23^4.87)</f>
         <v>10392.17404480623</v>
       </c>
-      <c r="W28" s="47" t="s">
+      <c r="W28" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="49"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="43"/>
       <c r="AD28" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="AE28" s="56" t="str">
+      <c r="AE28" s="58" t="str">
         <f>CONCATENATE("1743.811*",ROUND(AE4,2),"^1.852*",ROUND(AF11,2))</f>
         <v>1743.811*7.2^1.852*288.4</v>
       </c>
-      <c r="AF28" s="56"/>
-      <c r="AG28" s="56"/>
+      <c r="AF28" s="58"/>
+      <c r="AG28" s="58"/>
       <c r="AH28" s="1" t="s">
         <v>51</v>
       </c>
@@ -7920,45 +7909,45 @@
         <f>(1743.811*AE4^1.852*AF11)/(AE12^1.852*AE23^4.87)</f>
         <v>2877.3602282531324</v>
       </c>
-      <c r="AK28" s="47" t="s">
+      <c r="AK28" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="49"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="42"/>
+      <c r="AP28" s="43"/>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C29" s="58" t="str">
+    <row r="29" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="C29" s="59" t="str">
         <f>CONCATENATE( ROUND(C12, 2), "^1.852*", ROUND(C23, 2), "^4.83")</f>
         <v>140^1.852*2^4.83</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="Q29" s="58" t="str">
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="Q29" s="59" t="str">
         <f>CONCATENATE( ROUND(Q12, 2), "^1.852*", ROUND(Q23, 2), "^4.83")</f>
         <v>140^1.852*1^4.83</v>
       </c>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="AE29" s="58" t="str">
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="AE29" s="59" t="str">
         <f>CONCATENATE( ROUND(AE12, 2), "^1.852*", ROUND(AE23, 2), "^4.83")</f>
         <v>117^1.852*1^4.83</v>
       </c>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="59"/>
     </row>
-    <row r="30" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="I30" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="56" t="str">
+      <c r="J30" s="58" t="str">
         <f>CONCATENATE("1743.811*",ROUND(C4,2),"^1.852*",ROUND(N21,2))</f>
         <v>1743.811*7.2^1.852*750</v>
       </c>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
       <c r="M30" s="1" t="s">
         <v>51</v>
       </c>
@@ -7969,12 +7958,12 @@
       <c r="W30" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="X30" s="56" t="str">
+      <c r="X30" s="58" t="str">
         <f>CONCATENATE("1743.811*",ROUND(Q4,2),"^1.852*",ROUND(AB21,2))</f>
         <v>1743.811*7.2^1.852*1440</v>
       </c>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
       <c r="AA30" s="1" t="s">
         <v>51</v>
       </c>
@@ -7985,12 +7974,12 @@
       <c r="AK30" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AL30" s="56" t="str">
+      <c r="AL30" s="58" t="str">
         <f>CONCATENATE("1743.811*",ROUND(AE4,2),"^1.852*",ROUND(AP21,2))</f>
         <v>1743.811*7.2^1.852*276</v>
       </c>
-      <c r="AM30" s="56"/>
-      <c r="AN30" s="56"/>
+      <c r="AM30" s="58"/>
+      <c r="AN30" s="58"/>
       <c r="AO30" s="1" t="s">
         <v>51</v>
       </c>
@@ -7999,65 +7988,65 @@
         <v>13.071563948487752</v>
       </c>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B31" s="42" t="s">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B31" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="J31" s="58" t="str">
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="J31" s="59" t="str">
         <f>CONCATENATE( ROUND(C12, 2), "^1.852*", ROUND(B23, 2), "^4.83")</f>
         <v>140^1.852*3^4.83</v>
       </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="P31" s="42" t="s">
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="P31" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="X31" s="58" t="str">
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
+      <c r="X31" s="59" t="str">
         <f>CONCATENATE( ROUND(Q12, 2), "^1.852*", ROUND(P23, 2), "^4.83")</f>
         <v>140^1.852*6^4.83</v>
       </c>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AD31" s="42" t="s">
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AD31" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="42"/>
-      <c r="AI31" s="42"/>
-      <c r="AL31" s="58" t="str">
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="53"/>
+      <c r="AL31" s="59" t="str">
         <f>CONCATENATE( ROUND(AE12, 2), "^1.852*", ROUND(AD23, 2), "^4.83")</f>
         <v>117^1.852*3^4.83</v>
       </c>
-      <c r="AM31" s="58"/>
-      <c r="AN31" s="58"/>
+      <c r="AM31" s="59"/>
+      <c r="AN31" s="59"/>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.35">
       <c r="G32" s="36"/>
       <c r="U32" s="36"/>
       <c r="AI32" s="36"/>
     </row>
-    <row r="33" spans="2:42" ht="18" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B33" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="56" t="str">
+      <c r="C33" s="58" t="str">
         <f>CONCATENATE(ROUND(D11,2),"(",ROUND(C13,2),"-",ROUND(G25,2),")")</f>
         <v>927(69-31.49)</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="1" t="s">
         <v>51</v>
       </c>
@@ -8068,12 +8057,12 @@
       <c r="I33" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="J33" s="56" t="str">
+      <c r="J33" s="58" t="str">
         <f>CONCATENATE("1743.811*",ROUND(C4,2),"^1.852*",ROUND(N26,2))</f>
         <v>1743.811*7.2^1.852*180</v>
       </c>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
       <c r="M33" s="1" t="s">
         <v>51</v>
       </c>
@@ -8084,12 +8073,12 @@
       <c r="P33" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="Q33" s="56" t="str">
+      <c r="Q33" s="58" t="str">
         <f>CONCATENATE(ROUND(R11,2),"(",ROUND(Q13,2),"-",ROUND(U25,2),")")</f>
         <v>1452.3(69-1.69)</v>
       </c>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
       <c r="T33" s="1" t="s">
         <v>51</v>
       </c>
@@ -8100,12 +8089,12 @@
       <c r="W33" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="X33" s="56" t="str">
+      <c r="X33" s="58" t="str">
         <f>CONCATENATE("1743.811*",ROUND(Q4,2),"^1.852*",ROUND(AB26,2))</f>
         <v>1743.811*7.2^1.852*9.49</v>
       </c>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="58"/>
       <c r="AA33" s="1" t="s">
         <v>51</v>
       </c>
@@ -8116,12 +8105,12 @@
       <c r="AD33" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AE33" s="56" t="str">
+      <c r="AE33" s="58" t="str">
         <f>CONCATENATE(ROUND(AF11,2),"(",ROUND(AE13,2),"-",ROUND(AI25,2),")")</f>
         <v>288.4(109-13.66)</v>
       </c>
-      <c r="AF33" s="56"/>
-      <c r="AG33" s="56"/>
+      <c r="AF33" s="58"/>
+      <c r="AG33" s="58"/>
       <c r="AH33" s="1" t="s">
         <v>51</v>
       </c>
@@ -8132,12 +8121,12 @@
       <c r="AK33" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AL33" s="56" t="str">
+      <c r="AL33" s="58" t="str">
         <f>CONCATENATE("1743.811*",ROUND(AE4,2),"^1.852*",ROUND(AP26,2))</f>
         <v>1743.811*7.2^1.852*9.6</v>
       </c>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
+      <c r="AM33" s="58"/>
+      <c r="AN33" s="58"/>
       <c r="AO33" s="1" t="s">
         <v>51</v>
       </c>
@@ -8146,54 +8135,54 @@
         <v>95.778981245596626</v>
       </c>
     </row>
-    <row r="34" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="C34" s="57" t="str">
+    <row r="34" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="C34" s="60" t="str">
         <f>CONCATENATE(ROUND(G28,2),"-",ROUND(G25,2))</f>
         <v>226.84-31.49</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="J34" s="58" t="str">
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="J34" s="59" t="str">
         <f>CONCATENATE( ROUND(C12, 2), "^1.852*", ROUND(C23, 2), "^4.83")</f>
         <v>140^1.852*2^4.83</v>
       </c>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="Q34" s="57" t="str">
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="Q34" s="60" t="str">
         <f>CONCATENATE(ROUND(U28,2),"-",ROUND(U25,2))</f>
         <v>10392.17-1.69</v>
       </c>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="X34" s="58" t="str">
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="X34" s="59" t="str">
         <f>CONCATENATE( ROUND(Q12, 2), "^1.852*", ROUND(Q23, 2), "^4.83")</f>
         <v>140^1.852*1^4.83</v>
       </c>
-      <c r="Y34" s="58"/>
-      <c r="Z34" s="58"/>
-      <c r="AE34" s="57" t="str">
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AE34" s="60" t="str">
         <f>CONCATENATE(ROUND(AI28,2),"-",ROUND(AI25,2))</f>
         <v>2877.36-13.66</v>
       </c>
-      <c r="AF34" s="57"/>
-      <c r="AG34" s="57"/>
-      <c r="AL34" s="58" t="str">
+      <c r="AF34" s="60"/>
+      <c r="AG34" s="60"/>
+      <c r="AL34" s="59" t="str">
         <f>CONCATENATE( ROUND(AE12, 2), "^1.852*", ROUND(AE23, 2), "^4.83")</f>
         <v>117^1.852*1^4.83</v>
       </c>
-      <c r="AM34" s="58"/>
-      <c r="AN34" s="58"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
     </row>
-    <row r="36" spans="2:42" ht="18" x14ac:dyDescent="0.3">
-      <c r="B36" s="59" t="s">
+    <row r="36" spans="2:42" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="57" t="str">
+      <c r="C36" s="61"/>
+      <c r="D36" s="60" t="str">
         <f>CONCATENATE(ROUND(D11,2),"-",ROUND(G33,2))</f>
         <v>927-178.01</v>
       </c>
-      <c r="E36" s="57"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="1" t="s">
         <v>51</v>
       </c>
@@ -8201,15 +8190,15 @@
         <f>D11-G33</f>
         <v>748.99340585225013</v>
       </c>
-      <c r="P36" s="59" t="s">
+      <c r="P36" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="Q36" s="59"/>
-      <c r="R36" s="57" t="str">
+      <c r="Q36" s="61"/>
+      <c r="R36" s="60" t="str">
         <f>CONCATENATE(ROUND(R11,2),"-",ROUND(U33,2))</f>
         <v>1452.3-9.41</v>
       </c>
-      <c r="S36" s="57"/>
+      <c r="S36" s="60"/>
       <c r="T36" s="1" t="s">
         <v>51</v>
       </c>
@@ -8217,15 +8206,15 @@
         <f>R11-U33</f>
         <v>1442.8915190537186</v>
       </c>
-      <c r="AD36" s="59" t="s">
+      <c r="AD36" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="AE36" s="59"/>
-      <c r="AF36" s="57" t="str">
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="60" t="str">
         <f>CONCATENATE(ROUND(AF11,2),"-",ROUND(AI33,2))</f>
         <v>288.4-9.6</v>
       </c>
-      <c r="AG36" s="57"/>
+      <c r="AG36" s="60"/>
       <c r="AH36" s="1" t="s">
         <v>51</v>
       </c>
@@ -8234,71 +8223,71 @@
         <v>278.79830358635536</v>
       </c>
     </row>
-    <row r="39" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B39" s="43" t="s">
+    <row r="39" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B39" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="P39" s="43" t="s">
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="P39" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="AD39" s="43" t="s">
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="AD39" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="43"/>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="43"/>
+      <c r="AE39" s="44"/>
+      <c r="AF39" s="44"/>
+      <c r="AG39" s="44"/>
+      <c r="AH39" s="44"/>
+      <c r="AI39" s="44"/>
     </row>
-    <row r="40" spans="2:42" x14ac:dyDescent="0.3">
-      <c r="B40" s="43" t="s">
+    <row r="40" spans="2:42" x14ac:dyDescent="0.35">
+      <c r="B40" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43" t="s">
+      <c r="C40" s="44"/>
+      <c r="D40" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43" t="s">
+      <c r="E40" s="44"/>
+      <c r="F40" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="G40" s="43"/>
-      <c r="P40" s="43" t="s">
+      <c r="G40" s="44"/>
+      <c r="P40" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43" t="s">
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43" t="s">
+      <c r="S40" s="44"/>
+      <c r="T40" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="U40" s="43"/>
-      <c r="AD40" s="43" t="s">
+      <c r="U40" s="44"/>
+      <c r="AD40" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="AE40" s="43"/>
-      <c r="AF40" s="43" t="s">
+      <c r="AE40" s="44"/>
+      <c r="AF40" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AG40" s="43"/>
-      <c r="AH40" s="43" t="s">
+      <c r="AG40" s="44"/>
+      <c r="AH40" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="AI40" s="43"/>
+      <c r="AI40" s="44"/>
     </row>
-    <row r="41" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B41" s="21">
         <f>D5</f>
         <v>0</v>
@@ -8372,7 +8361,7 @@
         <v>985.92843605151222</v>
       </c>
     </row>
-    <row r="42" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B42" s="21">
         <f>C11</f>
         <v>900</v>
@@ -8446,7 +8435,7 @@
         <v>890.14945480591564</v>
       </c>
     </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.35">
       <c r="D43" s="31">
         <f>F6/1.03</f>
         <v>728.15533980582518</v>
@@ -8496,7 +8485,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="44" spans="2:42" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:42" x14ac:dyDescent="0.35">
       <c r="D44" s="21">
         <f>F6/1.03</f>
         <v>728.15533980582518</v>
@@ -8524,22 +8513,71 @@
     </row>
   </sheetData>
   <mergeCells count="105">
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="AD39:AI39"/>
+    <mergeCell ref="AD40:AE40"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AH40:AI40"/>
+    <mergeCell ref="AE33:AG33"/>
+    <mergeCell ref="AL33:AN33"/>
+    <mergeCell ref="AE34:AG34"/>
+    <mergeCell ref="AL34:AN34"/>
+    <mergeCell ref="AD36:AE36"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AK28:AP28"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="AL30:AN30"/>
+    <mergeCell ref="AD31:AI31"/>
+    <mergeCell ref="AL31:AN31"/>
+    <mergeCell ref="AE19:AG19"/>
+    <mergeCell ref="AD21:AI21"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="AH12:AI12"/>
+    <mergeCell ref="AD16:AI16"/>
+    <mergeCell ref="AK16:AP16"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AH6:AI6"/>
+    <mergeCell ref="AH7:AI7"/>
+    <mergeCell ref="AH8:AI8"/>
+    <mergeCell ref="AH9:AI9"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AD1:AP1"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AH4:AI4"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="P39:U39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="X31:Z31"/>
+    <mergeCell ref="X30:Z30"/>
+    <mergeCell ref="W28:AB28"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="P31:U31"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="P21:U21"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B21:G21"/>
@@ -8564,71 +8602,22 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="P31:U31"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="P21:U21"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="AD1:AP1"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="P39:U39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="X31:Z31"/>
-    <mergeCell ref="X30:Z30"/>
-    <mergeCell ref="W28:AB28"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="AH12:AI12"/>
-    <mergeCell ref="AD16:AI16"/>
-    <mergeCell ref="AK16:AP16"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AH6:AI6"/>
-    <mergeCell ref="AH7:AI7"/>
-    <mergeCell ref="AH8:AI8"/>
-    <mergeCell ref="AH9:AI9"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AK28:AP28"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="AL30:AN30"/>
-    <mergeCell ref="AD31:AI31"/>
-    <mergeCell ref="AL31:AN31"/>
-    <mergeCell ref="AE19:AG19"/>
-    <mergeCell ref="AD21:AI21"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AD39:AI39"/>
-    <mergeCell ref="AD40:AE40"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AH40:AI40"/>
-    <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="AL33:AN33"/>
-    <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="AL34:AN34"/>
-    <mergeCell ref="AD36:AE36"/>
-    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C28:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="N21">
     <cfRule type="expression" dxfId="5" priority="12">
@@ -8673,31 +8662,31 @@
   </sheetPr>
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="162" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="5.5546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.1796875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.08984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="6.08984375" style="5" customWidth="1"/>
     <col min="6" max="6" width="11" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="5"/>
-    <col min="12" max="12" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5546875" style="5"/>
+    <col min="7" max="7" width="6.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="5"/>
+    <col min="12" max="12" width="12.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.54296875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A1" s="74" t="s">
         <v>24</v>
       </c>
@@ -8717,7 +8706,7 @@
       </c>
       <c r="O1" s="75"/>
     </row>
-    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="76" t="s">
         <v>19</v>
       </c>
@@ -8761,7 +8750,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="77"/>
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
@@ -8780,10 +8769,10 @@
       </c>
       <c r="O3" s="10">
         <f>SUM(G5:G11)*86.4*IF(Datos!D15="Máximo",IF(Datos!D14="Gravedad",40%,65%),IF(Datos!D14="Gravedad",25%,40%))</f>
-        <v>238.93343713923579</v>
+        <v>203.46282729218586</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="78"/>
       <c r="B4" s="81"/>
       <c r="C4" s="81"/>
@@ -8797,25 +8786,24 @@
       <c r="K4" s="78"/>
       <c r="L4" s="78"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="20">
         <v>1</v>
       </c>
       <c r="B5" s="6">
-        <f>_xlfn.XLOOKUP(A5,Datos!$B$20:$B$26,Datos!$G$20:$G$26,"No P.C.",0,1)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="6">
         <f>B5*Datos!$D$9</f>
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D5" s="8">
         <f>B5*Datos!$D$12</f>
-        <v>97.603528243151857</v>
+        <v>66.390982801165066</v>
       </c>
       <c r="E5" s="8">
         <f>C5*Datos!$D$12</f>
-        <v>585.62116945891114</v>
+        <v>398.34589680699037</v>
       </c>
       <c r="F5" s="6">
         <f>Datos!$D$7</f>
@@ -8823,54 +8811,53 @@
       </c>
       <c r="G5" s="6">
         <f>E5*F5/86400</f>
-        <v>0.67780227946633242</v>
+        <v>0.46104849167475737</v>
       </c>
       <c r="H5" s="7">
         <f>G5*IF(SUM($E$5:$E$11)&lt;=1000,1.5,1.2)</f>
-        <v>0.81336273535959891</v>
+        <v>0.55325819000970877</v>
       </c>
       <c r="I5" s="7">
         <f>G5*IF(SUM($E$5:$E$11)&lt;=1000,2,3)</f>
-        <v>2.0334068383989972</v>
+        <v>1.3831454750242722</v>
       </c>
       <c r="J5" s="7">
         <f>Datos!$D$8*('L. Distribución'!D5-1)^(1/2)</f>
-        <v>1.965741877695562</v>
-      </c>
-      <c r="K5" s="7">
-        <f>IF(_xlfn.XLOOKUP(A5,Datos!B20:B26,Datos!A20:A26,"",0)="S",'L. Distribución'!I5,MAX('L. Distribución'!I5:J5))</f>
-        <v>2.0334068383989972</v>
-      </c>
-      <c r="L5" s="9">
-        <f>IF(_xlfn.XLOOKUP(A5,Datos!B20:B26,Datos!A20:A26,"",0)="F",K5,K5+_xlfn.XLOOKUP(Datos!D20,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E20,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F20,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
-        <v>2.0334068383989972</v>
-      </c>
-      <c r="M5" s="40" t="s">
+        <v>1.6172938236593257</v>
+      </c>
+      <c r="K5" s="7" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A5,Datos!B20:B26,Datos!A20:A26,"",0)="S",'L. Distribución'!I5,MAX('L. Distribución'!I5:J5))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L5" s="9" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A5,Datos!B20:B26,Datos!A20:A26,"",0)="F",K5,K5+_xlfn.XLOOKUP(Datos!D20,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E20,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F20,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M5" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="20">
         <v>2</v>
       </c>
       <c r="B6" s="6">
-        <f>_xlfn.XLOOKUP(A6,Datos!$B$20:$B$26,Datos!$G$20:$G$26,"No P.C.",0,1)</f>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C6" s="6">
         <f>B6*Datos!$D$9</f>
-        <v>228</v>
+        <v>372</v>
       </c>
       <c r="D6" s="8">
         <f>B6*Datos!$D$12</f>
-        <v>92.723351830994261</v>
+        <v>105.54463932492908</v>
       </c>
       <c r="E6" s="8">
         <f>C6*Datos!$D$12</f>
-        <v>556.34011098596557</v>
+        <v>633.26783594957442</v>
       </c>
       <c r="F6" s="6">
         <f>Datos!$D$7</f>
@@ -8878,48 +8865,47 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" ref="G6:G11" si="0">E6*F6/86400</f>
-        <v>0.64391216549301578</v>
+        <v>0.73294888420089632</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" ref="H6:H11" si="1">G6*IF(SUM($E$5:$E$11)&lt;=1000,1.5,1.2)</f>
-        <v>0.77269459859161893</v>
+        <v>0.87953866104107559</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" ref="I6:I11" si="2">G6*IF(SUM($E$5:$E$11)&lt;=1000,2,3)</f>
-        <v>1.9317364964790473</v>
+        <v>2.1988466526026889</v>
       </c>
       <c r="J6" s="7">
         <f>Datos!$D$8*('L. Distribución'!D6-1)^(1/2)</f>
-        <v>1.9154461812433601</v>
-      </c>
-      <c r="K6" s="7">
-        <f>IF(_xlfn.XLOOKUP(A6,Datos!B21:B27,Datos!A21:A27,"",0)="S",'L. Distribución'!I6,MAX('L. Distribución'!I6:J6))</f>
-        <v>1.9317364964790473</v>
-      </c>
-      <c r="L6" s="9">
-        <f>IF(_xlfn.XLOOKUP(A6,Datos!B21:B27,Datos!A21:A27,"",0)="F",K6,K6+_xlfn.XLOOKUP(Datos!D21,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E21,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F21,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
-        <v>1.9317364964790473</v>
+        <v>2.0449414595526112</v>
+      </c>
+      <c r="K6" s="7" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A6,Datos!B21:B27,Datos!A21:A27,"",0)="S",'L. Distribución'!I6,MAX('L. Distribución'!I6:J6))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L6" s="9" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A6,Datos!B21:B27,Datos!A21:A27,"",0)="F",K6,K6+_xlfn.XLOOKUP(Datos!D21,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E21,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F21,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="20">
         <v>3</v>
       </c>
       <c r="B7" s="6">
-        <f>_xlfn.XLOOKUP(A7,Datos!$B$20:$B$26,Datos!$G$20:$G$26,"No P.C.",0,1)</f>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6">
         <f>B7*Datos!$D$9</f>
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="D7" s="8">
         <f>B7*Datos!$D$12</f>
-        <v>151.28546877688538</v>
+        <v>85.11664461687829</v>
       </c>
       <c r="E7" s="8">
         <f>C7*Datos!$D$12</f>
-        <v>907.71281266131234</v>
+        <v>510.69986770126974</v>
       </c>
       <c r="F7" s="6">
         <f>Datos!$D$7</f>
@@ -8927,48 +8913,47 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>1.0505935331728151</v>
+        <v>0.59108780983943254</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>1.260712239807378</v>
+        <v>0.70930537180731901</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="2"/>
-        <v>3.1517805995184451</v>
+        <v>1.7732634295182976</v>
       </c>
       <c r="J7" s="7">
         <f>Datos!$D$8*('L. Distribución'!D7-1)^(1/2)</f>
-        <v>2.4518194776686588</v>
-      </c>
-      <c r="K7" s="7">
-        <f>IF(_xlfn.XLOOKUP(A7,Datos!B22:B28,Datos!A22:A28,"",0)="S",'L. Distribución'!I7,MAX('L. Distribución'!I7:J7))</f>
-        <v>3.1517805995184451</v>
-      </c>
-      <c r="L7" s="9">
-        <f>IF(_xlfn.XLOOKUP(A7,Datos!B22:B28,Datos!A22:A28,"",0)="F",K7,K7+_xlfn.XLOOKUP(Datos!D22,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E22,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F22,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
-        <v>7.116923934396489</v>
+        <v>1.8343025335737648</v>
+      </c>
+      <c r="K7" s="7" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A7,Datos!B22:B28,Datos!A22:A28,"",0)="S",'L. Distribución'!I7,MAX('L. Distribución'!I7:J7))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L7" s="9" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A7,Datos!B22:B28,Datos!A22:A28,"",0)="F",K7,K7+_xlfn.XLOOKUP(Datos!D22,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E22,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F22,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="20">
         <v>4</v>
       </c>
       <c r="B8" s="6">
-        <f>_xlfn.XLOOKUP(A8,Datos!$B$20:$B$26,Datos!$G$20:$G$26,"No P.C.",0,1)</f>
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="C8" s="6">
         <f>B8*Datos!$D$9</f>
-        <v>504</v>
+        <v>726</v>
       </c>
       <c r="D8" s="8">
         <f>B8*Datos!$D$12</f>
-        <v>204.9674093106189</v>
+        <v>205.98227997284545</v>
       </c>
       <c r="E8" s="8">
         <f>C8*Datos!$D$12</f>
-        <v>1229.8044558637134</v>
+        <v>1235.8936798370728</v>
       </c>
       <c r="F8" s="6">
         <f>Datos!$D$7</f>
@@ -8976,48 +8961,47 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>1.4233847868792979</v>
+        <v>1.4304324998114268</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="1"/>
-        <v>1.7080617442551576</v>
+        <v>1.7165189997737123</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="2"/>
-        <v>4.2701543606378936</v>
+        <v>4.2912974994342807</v>
       </c>
       <c r="J8" s="7">
         <f>Datos!$D$8*('L. Distribución'!D8-1)^(1/2)</f>
-        <v>2.8563431818366567</v>
-      </c>
-      <c r="K8" s="7">
-        <f>IF(_xlfn.XLOOKUP(A8,Datos!B23:B29,Datos!A23:A29,"",0)="S",'L. Distribución'!I8,MAX('L. Distribución'!I8:J8))</f>
-        <v>4.2701543606378936</v>
-      </c>
-      <c r="L8" s="9">
-        <f>IF(_xlfn.XLOOKUP(A8,Datos!B23:B29,Datos!A23:A29,"",0)="F",K8,K8+_xlfn.XLOOKUP(Datos!D23,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E23,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F23,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
-        <v>4.2701543606378936</v>
+        <v>2.8634404479426174</v>
+      </c>
+      <c r="K8" s="7" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A8,Datos!B23:B29,Datos!A23:A29,"",0)="S",'L. Distribución'!I8,MAX('L. Distribución'!I8:J8))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L8" s="9" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A8,Datos!B23:B29,Datos!A23:A29,"",0)="F",K8,K8+_xlfn.XLOOKUP(Datos!D23,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E23,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F23,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="20">
         <v>5</v>
       </c>
       <c r="B9" s="6">
-        <f>_xlfn.XLOOKUP(A9,Datos!$B$20:$B$26,Datos!$G$20:$G$26,"No P.C.",0,1)</f>
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C9" s="6">
         <f>B9*Datos!$D$9</f>
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="D9" s="8">
         <f>B9*Datos!$D$12</f>
-        <v>63.442293358048708</v>
+        <v>64.6886499088275</v>
       </c>
       <c r="E9" s="8">
         <f>C9*Datos!$D$12</f>
-        <v>380.65376014829224</v>
+        <v>388.131899452965</v>
       </c>
       <c r="F9" s="6">
         <f>Datos!$D$7</f>
@@ -9025,35 +9009,34 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>0.44057148165311599</v>
+        <v>0.44922673547796876</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>0.52868577798373917</v>
+        <v>0.53907208257356254</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="2"/>
-        <v>1.3217144449593481</v>
+        <v>1.3476802064339064</v>
       </c>
       <c r="J9" s="7">
         <f>Datos!$D$8*('L. Distribución'!D9-1)^(1/2)</f>
-        <v>1.580408723818604</v>
-      </c>
-      <c r="K9" s="7">
-        <f>IF(_xlfn.XLOOKUP(A9,Datos!B24:B30,Datos!A24:A30,"",0)="S",'L. Distribución'!I9,MAX('L. Distribución'!I9:J9))</f>
-        <v>1.3217144449593481</v>
-      </c>
-      <c r="L9" s="9">
-        <f>IF(_xlfn.XLOOKUP(A9,Datos!B24:B30,Datos!A24:A30,"",0)="F",K9,K9+_xlfn.XLOOKUP(Datos!D24,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E24,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F24,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
-        <v>12.708792739993731</v>
+        <v>1.5961033789680104</v>
+      </c>
+      <c r="K9" s="7" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A9,Datos!B24:B30,Datos!A24:A30,"",0)="S",'L. Distribución'!I9,MAX('L. Distribución'!I9:J9))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L9" s="9" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A9,Datos!B24:B30,Datos!A24:A30,"",0)="F",K9,K9+_xlfn.XLOOKUP(Datos!D24,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E24,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F24,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="20">
         <v>6</v>
       </c>
       <c r="B10" s="6">
-        <f>_xlfn.XLOOKUP(A10,Datos!$B$20:$B$26,Datos!$G$20:$G$26,"No P.C.",0,1)</f>
         <v>74</v>
       </c>
       <c r="C10" s="6">
@@ -9062,11 +9045,11 @@
       </c>
       <c r="D10" s="8">
         <f>B10*Datos!$D$12</f>
-        <v>180.56652724983095</v>
+        <v>125.97263403297987</v>
       </c>
       <c r="E10" s="8">
         <f>C10*Datos!$D$12</f>
-        <v>1083.3991634989857</v>
+        <v>755.83580419787927</v>
       </c>
       <c r="F10" s="6">
         <f>Datos!$D$7</f>
@@ -9074,48 +9057,47 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>1.253934217012715</v>
+        <v>0.87480995856236032</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="1"/>
-        <v>1.5047210604152579</v>
+        <v>1.0497719502748324</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="2"/>
-        <v>3.761802651038145</v>
+        <v>2.6244298756870812</v>
       </c>
       <c r="J10" s="7">
         <f>Datos!$D$8*('L. Distribución'!D10-1)^(1/2)</f>
-        <v>2.6800487103769659</v>
-      </c>
-      <c r="K10" s="7">
-        <f>IF(_xlfn.XLOOKUP(A10,Datos!B25:B31,Datos!A25:A31,"",0)="S",'L. Distribución'!I10,MAX('L. Distribución'!I10:J10))</f>
-        <v>3.761802651038145</v>
-      </c>
-      <c r="L10" s="9">
-        <f>IF(_xlfn.XLOOKUP(A10,Datos!B25:B31,Datos!A25:A31,"",0)="F",K10,K10+_xlfn.XLOOKUP(Datos!D25,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E25,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F25,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
-        <v>3.761802651038145</v>
+        <v>2.2358231954515531</v>
+      </c>
+      <c r="K10" s="7" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A10,Datos!B25:B31,Datos!A25:A31,"",0)="S",'L. Distribución'!I10,MAX('L. Distribución'!I10:J10))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L10" s="9" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A10,Datos!B25:B31,Datos!A25:A31,"",0)="F",K10,K10+_xlfn.XLOOKUP(Datos!D25,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E25,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F25,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="20">
         <v>7</v>
       </c>
       <c r="B11" s="6">
-        <f>_xlfn.XLOOKUP(A11,Datos!$B$20:$B$26,Datos!$G$20:$G$26,"No P.C.",0,1)</f>
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C11" s="6">
         <f>B11*Datos!$D$9</f>
-        <v>504</v>
+        <v>684</v>
       </c>
       <c r="D11" s="8">
         <f>B11*Datos!$D$12</f>
-        <v>204.9674093106189</v>
+        <v>194.0659497264825</v>
       </c>
       <c r="E11" s="8">
         <f>C11*Datos!$D$12</f>
-        <v>1229.8044558637134</v>
+        <v>1164.3956983588951</v>
       </c>
       <c r="F11" s="6">
         <f>Datos!$D$7</f>
@@ -9123,34 +9105,34 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>1.4233847868792979</v>
+        <v>1.3476802064339062</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="1"/>
-        <v>1.7080617442551576</v>
+        <v>1.6172162477206873</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="2"/>
-        <v>4.2701543606378936</v>
+        <v>4.0430406193017188</v>
       </c>
       <c r="J11" s="7">
         <f>Datos!$D$8*('L. Distribución'!D11-1)^(1/2)</f>
-        <v>2.8563431818366567</v>
-      </c>
-      <c r="K11" s="7">
-        <f>IF(_xlfn.XLOOKUP(A11,Datos!B26:B32,Datos!A26:A32,"",0)="S",'L. Distribución'!I11,MAX('L. Distribución'!I11:J11))</f>
-        <v>4.2701543606378936</v>
-      </c>
-      <c r="L11" s="9">
-        <f>IF(_xlfn.XLOOKUP(A11,Datos!B26:B32,Datos!A26:A32,"",0)="F",K11,K11+_xlfn.XLOOKUP(Datos!D26,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E26,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F26,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
-        <v>20.740749751669771</v>
-      </c>
-      <c r="M11" s="40" t="s">
+        <v>2.7789634738620261</v>
+      </c>
+      <c r="K11" s="7" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A11,Datos!B26:B32,Datos!A26:A32,"",0)="S",'L. Distribución'!I11,MAX('L. Distribución'!I11:J11))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L11" s="9" t="e">
+        <f ca="1">IF(_xlfn.XLOOKUP(A11,Datos!B26:B32,Datos!A26:A32,"",0)="F",K11,K11+_xlfn.XLOOKUP(Datos!D26,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!E26,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0)+_xlfn.XLOOKUP(Datos!F26,'L. Distribución'!$A$5:$A$11,'L. Distribución'!$L$5:$L$11,0,0))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M11" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -9180,14 +9162,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="32a3cbdf-b0ed-40a8-8af8-c3e22539e925" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100BB607AACC3449042BCF49D6ED422332F" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fcd34b878414b57f1f00d83411f79303">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="32a3cbdf-b0ed-40a8-8af8-c3e22539e925" xmlns:ns4="8b2d2e64-03b7-445e-bcd8-ec8cd9584d47" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1fdb448a4ebaf478bc559d1787a9dba3" ns3:_="" ns4:_="">
     <xsd:import namespace="32a3cbdf-b0ed-40a8-8af8-c3e22539e925"/>
@@ -9426,6 +9400,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="32a3cbdf-b0ed-40a8-8af8-c3e22539e925" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9436,23 +9418,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{508E8879-3900-4959-BCF4-F12A585822B1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="32a3cbdf-b0ed-40a8-8af8-c3e22539e925"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8b2d2e64-03b7-445e-bcd8-ec8cd9584d47"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03CE8D9F-DBF9-45DD-809F-6A03F3A05721}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9471,6 +9436,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{508E8879-3900-4959-BCF4-F12A585822B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="32a3cbdf-b0ed-40a8-8af8-c3e22539e925"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8b2d2e64-03b7-445e-bcd8-ec8cd9584d47"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CE611DD-C415-4271-870C-BB4EEDFD3FDA}">
   <ds:schemaRefs>
